--- a/training/output/CNN/P/P1_P0.xlsx
+++ b/training/output/CNN/P/P1_P0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9177631578947368</v>
+        <v>0.4558333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>1.664638805807682</v>
+        <v>1.683572560548782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.6858333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>1.489289229376274</v>
+        <v>1.492464691400528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.7216666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>1.466646951541566</v>
+        <v>1.399342775344849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.7891666666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>1.425479152746368</v>
+        <v>1.361072868108749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0.7808333333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>1.422400968116626</v>
+        <v>1.301562815904617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8116666666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>1.424407971532721</v>
+        <v>1.241675347089767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.419134485094171</v>
+        <v>1.18074956536293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.8558333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>1.420825176071702</v>
+        <v>1.112931728363037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0.8591666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>1.400560617446899</v>
+        <v>1.083260238170624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.86</v>
       </c>
       <c r="B11" t="n">
-        <v>1.434328648081997</v>
+        <v>1.059056431055069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8866666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.430279378305402</v>
+        <v>1.002284541726112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8716666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.427268224850035</v>
+        <v>0.9650983363389969</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8575</v>
       </c>
       <c r="B14" t="n">
-        <v>1.407921366524278</v>
+        <v>0.9724017232656479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8891666666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.400061437958165</v>
+        <v>0.9395136535167694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8691666666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>1.416361490885417</v>
+        <v>0.8898188024759293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8775000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>1.40033153065464</v>
+        <v>0.8556634038686752</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.865</v>
       </c>
       <c r="B18" t="n">
-        <v>1.401761389615243</v>
+        <v>0.8481535315513611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.415952333232813</v>
+        <v>0.8365755975246429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.8641666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>1.499464819305822</v>
+        <v>0.822581022977829</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.8616666666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>1.442938081005163</v>
+        <v>0.8189624547958374</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8708333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>1.42423745414667</v>
+        <v>0.8421406000852585</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.8658333333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.429548947434676</v>
+        <v>0.8260795027017593</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8616666666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>1.410130199633147</v>
+        <v>0.826808899641037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8516666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>1.418550551983348</v>
+        <v>0.8019665777683258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>1.398006133865892</v>
+        <v>0.789845734834671</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8841666666666668</v>
       </c>
       <c r="B27" t="n">
-        <v>1.394661759075366</v>
+        <v>0.7921393662691116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>1.418649412038034</v>
+        <v>0.7813966572284698</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8658333333333333</v>
       </c>
       <c r="B29" t="n">
-        <v>1.404958166574177</v>
+        <v>0.7727210074663162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8691666666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>1.401291284644813</v>
+        <v>0.7738322466611862</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8858333333333334</v>
       </c>
       <c r="B31" t="n">
-        <v>1.400489809220297</v>
+        <v>0.7543685734272003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8841666666666668</v>
       </c>
       <c r="B32" t="n">
-        <v>1.400675445272211</v>
+        <v>0.7664141803979874</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8908333333333334</v>
       </c>
       <c r="B33" t="n">
-        <v>1.399092354272541</v>
+        <v>0.7773918211460114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8858333333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>1.400746058999446</v>
+        <v>0.756250411272049</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8883333333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>1.423763630682962</v>
+        <v>0.7610594034194946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8908333333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1.422729193118581</v>
+        <v>0.753350242972374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8925000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1.396996665419194</v>
+        <v>0.7533631175756454</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8933333333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.396627873705145</v>
+        <v>0.7416130006313324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8808333333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>1.396781459189298</v>
+        <v>0.7496643513441086</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8908333333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>1.39229647109383</v>
+        <v>0.7468506842851639</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8833333333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>1.394152409151981</v>
+        <v>0.7416091859340668</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>1.390740256560476</v>
+        <v>0.741652712225914</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8975000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>1.391393740971883</v>
+        <v>0.7439415007829666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8975000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1.406184186015213</v>
+        <v>0.7495908141136169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8975000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>1.393846482561346</v>
+        <v>0.7476846724748611</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.8991666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>1.399162311302988</v>
+        <v>0.7371710240840912</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9</v>
       </c>
       <c r="B47" t="n">
-        <v>1.393944240452951</v>
+        <v>0.73949334025383</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.89</v>
       </c>
       <c r="B48" t="n">
-        <v>1.425751732106794</v>
+        <v>0.7360332757234573</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8883333333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>1.412598708219696</v>
+        <v>0.7329961359500885</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.8975000000000001</v>
       </c>
       <c r="B50" t="n">
-        <v>1.403209711375989</v>
+        <v>0.7339198887348175</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.993421052631579</v>
+        <v>0.88</v>
       </c>
       <c r="B51" t="n">
-        <v>1.394820627413298</v>
+        <v>0.7407785803079605</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8875000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>1.398480896364179</v>
+        <v>0.7339987456798553</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.8983333333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>1.390604897549278</v>
+        <v>0.7372332364320755</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>1.405429095552679</v>
+        <v>0.7318253517150879</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.8975000000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>1.417854840295357</v>
+        <v>0.7329136580228806</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B56" t="n">
-        <v>1.446911000368888</v>
+        <v>0.7477320432662964</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9</v>
       </c>
       <c r="B57" t="n">
-        <v>1.424772607652764</v>
+        <v>0.7309228926897049</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9</v>
       </c>
       <c r="B58" t="n">
-        <v>1.394525212154054</v>
+        <v>0.7317384332418442</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.391887965955232</v>
+        <v>0.7267869412899017</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8983333333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.437585928983856</v>
+        <v>0.7257349789142609</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9025000000000001</v>
       </c>
       <c r="B61" t="n">
-        <v>1.394226003111454</v>
+        <v>0.7250774651765823</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.905</v>
       </c>
       <c r="B62" t="n">
-        <v>1.407102164469267</v>
+        <v>0.7255488485097885</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.993421052631579</v>
+        <v>0.905</v>
       </c>
       <c r="B63" t="n">
-        <v>1.407204567340382</v>
+        <v>0.7242811322212219</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9075000000000001</v>
       </c>
       <c r="B64" t="n">
-        <v>1.391823781164069</v>
+        <v>0.7268015891313553</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9075000000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>1.397285176996599</v>
+        <v>0.7285404056310654</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.905</v>
       </c>
       <c r="B66" t="n">
-        <v>1.40970976729142</v>
+        <v>0.7292122393846512</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B67" t="n">
-        <v>1.394323334359286</v>
+        <v>0.7347262352705002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9133333333333333</v>
       </c>
       <c r="B68" t="n">
-        <v>1.389712210287128</v>
+        <v>0.7255153357982635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389285746373628</v>
+        <v>0.7261237353086472</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390317757924398</v>
+        <v>0.7313723564147949</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>1.424422916613127</v>
+        <v>0.7246140390634537</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9066666666666667</v>
       </c>
       <c r="B72" t="n">
-        <v>1.410138126005206</v>
+        <v>0.7269821316003799</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>1.438891812374717</v>
+        <v>0.7260251492261887</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B74" t="n">
-        <v>1.398510297139486</v>
+        <v>0.7283289134502411</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B75" t="n">
-        <v>1.400750317071614</v>
+        <v>0.7255216836929321</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390264885467395</v>
+        <v>0.7345476001501083</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9158333333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>1.393224500773246</v>
+        <v>0.7213475406169891</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B78" t="n">
-        <v>1.414529593367326</v>
+        <v>0.7204207628965378</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>1.393607618515952</v>
+        <v>0.7301271557807922</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9141666666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>1.393907902533548</v>
+        <v>0.7219984382390976</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>1.437778242847376</v>
+        <v>0.720149964094162</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>1.414316261023806</v>
+        <v>0.7195672690868378</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.392628376944023</v>
+        <v>0.7235688269138336</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0.9141666666666667</v>
       </c>
       <c r="B84" t="n">
-        <v>1.404097389756588</v>
+        <v>0.7322927266359329</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391945468752008</v>
+        <v>0.7276765555143356</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B86" t="n">
-        <v>1.415961742401123</v>
+        <v>0.7337135821580887</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>1.402735442445989</v>
+        <v>0.7236987352371216</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B88" t="n">
-        <v>1.455941348745112</v>
+        <v>0.725744903087616</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B89" t="n">
-        <v>1.392418399191739</v>
+        <v>0.7176642417907715</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9141666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>1.396286502219083</v>
+        <v>0.7252707183361053</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9066666666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.43834854636276</v>
+        <v>0.724999725818634</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B92" t="n">
-        <v>1.391889536589907</v>
+        <v>0.7245476394891739</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>1.390555528172275</v>
+        <v>0.717698723077774</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B94" t="n">
-        <v>1.388922915124057</v>
+        <v>0.7247693836688995</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9141666666666667</v>
       </c>
       <c r="B95" t="n">
-        <v>1.425049112554182</v>
+        <v>0.7216667681932449</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>1.391000030333536</v>
+        <v>0.7204932570457458</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9108333333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.409453218443352</v>
+        <v>0.7239575982093811</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9141666666666667</v>
       </c>
       <c r="B98" t="n">
-        <v>1.404502709706624</v>
+        <v>0.7256732285022736</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B99" t="n">
-        <v>1.427587910702354</v>
+        <v>0.7179104536771774</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B100" t="n">
-        <v>1.396337260279739</v>
+        <v>0.7202497124671936</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>1.390458567100659</v>
+        <v>0.7200724929571152</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7178315222263336</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9041666666666667</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7192899435758591</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7202825844287872</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7205558866262436</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7149772644042969</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7179141044616699</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.718511775135994</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7176844328641891</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7236399203538895</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7217199355363846</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7260314077138901</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7245069295167923</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7156865000724792</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.717218354344368</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7191836386919022</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7296811938285828</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7169977575540543</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7178318053483963</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7226666212081909</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7179053127765656</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.717242568731308</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7151069790124893</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7170532494783401</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7169328927993774</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7258975058794022</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7164035141468048</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7162587344646454</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7211096435785294</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7152478694915771</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7181767821311951</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9016666666666667</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7156124860048294</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7137921899557114</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7193715274333954</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.719570204615593</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7156446725130081</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.723861962556839</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7167049944400787</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.714768648147583</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7218276262283325</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7209177762269974</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7155126333236694</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7179342061281204</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7210600078105927</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7162321209907532</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7160611301660538</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7198693007230759</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7206596583127975</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7275872081518173</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.723088875412941</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8865728229284286</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.8516666666666667</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.879806712269783</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9191666666666667</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7536281645298004</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9125000000000001</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7455258071422577</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7236317843198776</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.727587878704071</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7269414961338043</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7217117846012115</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.717225581407547</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7327106148004532</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.717730700969696</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7194110900163651</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7202740460634232</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7161383330821991</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7177568525075912</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7155300378799438</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7157248854637146</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7189188301563263</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7324792593717575</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.717179998755455</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.724051222205162</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.718962773680687</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7285483479499817</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7220780849456787</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7154261916875839</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7142634689807892</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.728654071688652</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7233563363552094</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7147026360034943</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7166440784931183</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7146603316068649</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7198795974254608</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.71870157122612</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7272073030471802</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7190591841936111</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7173931747674942</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.717253178358078</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7242398262023926</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7207937985658646</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.717406302690506</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7153052687644958</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7215465009212494</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9075000000000001</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.717509463429451</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7176918983459473</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.719855859875679</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7168419659137726</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.728670209646225</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7245789170265198</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7186509221792221</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7161096930503845</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7148070931434631</v>
       </c>
     </row>
   </sheetData>
